--- a/Sexo.xlsx
+++ b/Sexo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\recal\Desktop\MINISTERIO DE HACIENDA\PYTYVO - Datos de Consumo\Dashboard_Pytyvo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{516896F3-6BB5-4363-B0FE-78477BB60FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303E1C18-227D-4360-B605-FF4909E0B5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EA9B87F9-B926-4B66-A0E4-22E430A4E927}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>FEMENINO</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>cantidad</t>
+  </si>
+  <si>
+    <t>porcentaje</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
   </si>
 </sst>
 </file>
@@ -387,36 +396,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC5A0F6-4C29-4E43-8E28-50A1C6E3CDFD}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>377759</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>378921</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
